--- a/эксель/БС.xlsx
+++ b/эксель/БС.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a020ae5d501267d/Рабочий стол/КультКодСайт/эксель/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Locker\Proga\CultCode\эксель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_AD4DF75460589B3ACB7284451F5D7C2A5ADEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE3809CD-7AF1-4668-BA10-F34103A6D3BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62FA72E-3F09-454B-AB51-F2CC842216A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13308" yWindow="2184" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Библиотека-читальня им. А. С. Пушкина</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>mus_emotions</t>
+  </si>
+  <si>
+    <t>фото нет</t>
+  </si>
+  <si>
+    <t>одни и те же фото</t>
+  </si>
+  <si>
+    <t>2 (2-ое фото не оч)</t>
   </si>
 </sst>
 </file>
@@ -289,7 +298,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -362,12 +377,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,303 +671,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+    <col min="1" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="C36" s="9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/эксель/БС.xlsx
+++ b/эксель/БС.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Locker\Proga\CultCode\эксель\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Аня\OneDrive\Рабочий стол\CultCode\эксель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62FA72E-3F09-454B-AB51-F2CC842216A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BF808-C16E-40AD-B59E-A9B5993990B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13428" yWindow="3552" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>Музей уральских сказов (Музей П. П. Бажова)</t>
   </si>
   <si>
-    <t>mus_ural_</t>
-  </si>
-  <si>
     <t>Loft Эксперт</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>2 (2-ое фото не оч)</t>
+  </si>
+  <si>
+    <t>mus_ural</t>
   </si>
 </sst>
 </file>
@@ -673,17 +673,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -716,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -768,10 +768,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -779,10 +779,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -790,10 +790,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -812,10 +812,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -826,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -834,10 +834,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
@@ -859,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -870,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -878,10 +878,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -892,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -925,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -944,10 +944,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -969,111 +969,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C34" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C36" s="9">
         <v>5</v>
